--- a/Control_signals.xlsx
+++ b/Control_signals.xlsx
@@ -171,10 +171,10 @@
     <t>000011</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>00110</t>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>000111</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -354,7 +354,13 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3414,7 +3420,7 @@
       <c r="A68" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3521,8 +3527,8 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="10">
-        <v>0</v>
+      <c r="K70" s="6">
+        <v>1</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>15</v>
@@ -3530,7 +3536,7 @@
       <c r="M70" s="8">
         <v>0</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3561,8 +3567,8 @@
       <c r="J71" s="8">
         <v>1</v>
       </c>
-      <c r="K71" s="3">
-        <v>0</v>
+      <c r="K71" s="6">
+        <v>1</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>15</v>
@@ -3577,10 +3583,10 @@
     <row r="72" ht="14.25">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E72" s="8">
@@ -3601,7 +3607,7 @@
       <c r="J72" s="10">
         <v>0</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="10">
         <v>0</v>
       </c>
       <c r="L72" s="4" t="s">
@@ -3691,8 +3697,8 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
-      <c r="H75" s="6">
-        <v>0</v>
+      <c r="H75" s="8">
+        <v>1</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
@@ -3731,7 +3737,7 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="6">
         <v>1</v>
       </c>
       <c r="I76" s="3">
@@ -3740,8 +3746,8 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="10">
-        <v>0</v>
+      <c r="K76" s="6">
+        <v>1</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>15</v>
@@ -3749,7 +3755,7 @@
       <c r="M76" s="8">
         <v>1</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3780,7 +3786,7 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="10">
         <v>0</v>
       </c>
       <c r="L77" s="4" t="s">
@@ -3798,10 +3804,10 @@
       <c r="B78" s="7"/>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -3837,10 +3843,13 @@
       <c r="M79" s="3">
         <v>0</v>
       </c>
+      <c r="N79" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="4" t="s">
         <v>20</v>
       </c>
@@ -3874,10 +3883,13 @@
       <c r="M80" s="3">
         <v>0</v>
       </c>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="4" t="s">
         <v>46</v>
       </c>
@@ -3902,8 +3914,8 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="10">
-        <v>0</v>
+      <c r="K81" s="6">
+        <v>1</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>15</v>
@@ -3911,10 +3923,13 @@
       <c r="M81" s="8">
         <v>0</v>
       </c>
+      <c r="N81" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="4" t="s">
         <v>22</v>
       </c>
@@ -3930,8 +3945,8 @@
       <c r="G82" s="3">
         <v>0</v>
       </c>
-      <c r="H82" s="8">
-        <v>1</v>
+      <c r="H82" s="3">
+        <v>0</v>
       </c>
       <c r="I82" s="8">
         <v>1</v>
@@ -3939,119 +3954,251 @@
       <c r="J82" s="8">
         <v>1</v>
       </c>
-      <c r="K82" s="3">
-        <v>0</v>
+      <c r="K82" s="6">
+        <v>1</v>
       </c>
       <c r="L82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="10">
+        <v>0</v>
+      </c>
+      <c r="J83" s="10">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="M82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4" t="s">
+      <c r="B85" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" ht="14.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="22" t="s">
+      <c r="D86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="8">
+        <v>1</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M87" s="8">
+        <v>1</v>
+      </c>
+      <c r="N87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" ht="14.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" ht="14.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" ht="14.25">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="D88" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="10">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" s="10">
+        <v>0</v>
+      </c>
+      <c r="N88" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" ht="14.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
       <c r="L89" s="1"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" ht="14.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" ht="14.25">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A9:A12"/>
@@ -4078,6 +4225,10 @@
     <mergeCell ref="B68:B72"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B88"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Control_signals.xlsx
+++ b/Control_signals.xlsx
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -196,6 +196,11 @@
     <font>
       <name val="Calibri"/>
       <color theme="1" tint="0"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -291,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -345,6 +350,9 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,13 +362,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1766,8 +1768,8 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
+      <c r="H23" s="19">
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1814,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1861,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="8">
         <v>0</v>
@@ -1907,7 +1909,7 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="10">
         <v>0</v>
       </c>
       <c r="I26" s="3">
@@ -1981,8 +1983,8 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
+      <c r="H28" s="19">
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -2029,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2076,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="8">
         <v>0</v>
@@ -2122,7 +2124,7 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="10">
         <v>0</v>
       </c>
       <c r="I31" s="3">
@@ -2196,8 +2198,8 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
-        <v>0</v>
+      <c r="H33" s="19">
+        <v>1</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2244,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -2291,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="8">
         <v>0</v>
@@ -2337,7 +2339,7 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="10">
         <v>0</v>
       </c>
       <c r="I36" s="3">
@@ -2411,8 +2413,8 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="8">
-        <v>0</v>
+      <c r="H38" s="19">
+        <v>1</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -2459,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -2506,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="8">
         <v>0</v>
@@ -2517,7 +2519,7 @@
       <c r="K40" s="6">
         <v>1</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="20" t="s">
         <v>15</v>
       </c>
       <c r="M40" s="3">
@@ -2552,7 +2554,7 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="10">
         <v>0</v>
       </c>
       <c r="I41" s="3">
@@ -2626,8 +2628,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="8">
-        <v>0</v>
+      <c r="H43" s="19">
+        <v>1</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2674,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2721,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="8">
         <v>0</v>
@@ -2732,7 +2734,7 @@
       <c r="K45" s="6">
         <v>1</v>
       </c>
-      <c r="L45" s="19" t="s">
+      <c r="L45" s="20" t="s">
         <v>15</v>
       </c>
       <c r="M45" s="3">
@@ -2767,7 +2769,7 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="10">
         <v>0</v>
       </c>
       <c r="I46" s="3">
@@ -2841,8 +2843,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="19">
+        <v>1</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2882,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -2961,7 +2963,7 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="10">
         <v>0</v>
       </c>
       <c r="I52" s="3">
@@ -3072,7 +3074,7 @@
       <c r="K55" s="6">
         <v>0</v>
       </c>
-      <c r="L55" s="20" t="s">
+      <c r="L55" s="21" t="s">
         <v>15</v>
       </c>
       <c r="M55" s="3">
@@ -3140,8 +3142,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="6">
-        <v>1</v>
+      <c r="H57" s="10">
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3251,7 +3253,7 @@
       <c r="K60" s="6">
         <v>0</v>
       </c>
-      <c r="L60" s="20" t="s">
+      <c r="L60" s="21" t="s">
         <v>15</v>
       </c>
       <c r="M60" s="3">
@@ -3319,8 +3321,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="6">
-        <v>1</v>
+      <c r="H62" s="10">
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3353,7 +3355,7 @@
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
-      <c r="L63" s="21"/>
+      <c r="L63" s="22"/>
       <c r="M63" s="2"/>
     </row>
     <row r="64" ht="14.25">
@@ -3368,7 +3370,7 @@
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
-      <c r="L64" s="21"/>
+      <c r="L64" s="22"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" ht="14.25">
@@ -3383,7 +3385,7 @@
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
       <c r="K65" s="18"/>
-      <c r="L65" s="21"/>
+      <c r="L65" s="22"/>
       <c r="M65" s="2"/>
     </row>
     <row r="66" ht="14.25">
@@ -3398,7 +3400,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="21"/>
+      <c r="L66" s="22"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" ht="14.25">
@@ -3420,7 +3422,7 @@
       <c r="A68" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3438,8 +3440,8 @@
       <c r="G68" s="3">
         <v>0</v>
       </c>
-      <c r="H68" s="3">
-        <v>0</v>
+      <c r="H68" s="19">
+        <v>1</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
@@ -3479,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="3">
         <v>0</v>
@@ -3519,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3559,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="8">
         <v>1</v>
@@ -3598,7 +3600,7 @@
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="10">
         <v>0</v>
       </c>
       <c r="I72" s="10">
@@ -3657,8 +3659,8 @@
       <c r="G74" s="3">
         <v>0</v>
       </c>
-      <c r="H74" s="6">
-        <v>0</v>
+      <c r="H74" s="8">
+        <v>1</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
@@ -3697,7 +3699,7 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="6">
         <v>1</v>
       </c>
       <c r="I75" s="3">
@@ -3765,7 +3767,7 @@
       <c r="C77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="8">
@@ -3804,10 +3806,10 @@
       <c r="B78" s="7"/>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -3825,8 +3827,8 @@
       <c r="G79" s="3">
         <v>0</v>
       </c>
-      <c r="H79" s="3">
-        <v>0</v>
+      <c r="H79" s="19">
+        <v>1</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
@@ -3866,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
@@ -3906,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="8">
         <v>1</v>
@@ -3985,7 +3987,7 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="10">
         <v>0</v>
       </c>
       <c r="I83" s="10">
@@ -4023,10 +4025,10 @@
       <c r="M84" s="2"/>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -4044,8 +4046,8 @@
       <c r="G85" s="3">
         <v>0</v>
       </c>
-      <c r="H85" s="6">
-        <v>0</v>
+      <c r="H85" s="8">
+        <v>1</v>
       </c>
       <c r="I85" s="3">
         <v>0</v>
@@ -4084,7 +4086,7 @@
       <c r="G86" s="3">
         <v>0</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="6">
         <v>1</v>
       </c>
       <c r="I86" s="3">
@@ -4152,7 +4154,7 @@
       <c r="C88" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E88" s="8">
